--- a/FormulaIntro.xlsx
+++ b/FormulaIntro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephen.charlesworth\Documents\excel_class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephen.charlesworth\Documents\irasburg_university_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF1D47C-906B-44D8-A29D-C25F652C8D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA18149-6D70-4536-AA78-5A536C916E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960" xr2:uid="{7B0D3117-55ED-417B-9E44-30708754F62D}"/>
+    <workbookView xWindow="4764" yWindow="4656" windowWidth="17280" windowHeight="8724" xr2:uid="{7B0D3117-55ED-417B-9E44-30708754F62D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="L1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -501,6 +501,10 @@
       </c>
       <c r="G2">
         <v>3</v>
+      </c>
+      <c r="H2">
+        <f>SUM(A2:G2)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -511,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -524,6 +528,10 @@
       </c>
       <c r="G3">
         <v>6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="0">SUM(A3:G3)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -547,6 +555,10 @@
       </c>
       <c r="G4">
         <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
